--- a/data/info/match_info_jogo6.xlsx
+++ b/data/info/match_info_jogo6.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28217"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coletas_3x3\rastreamento_3x3_Dvideow\jogo6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\OneDrive\Documents\data\bruno\projetos\3x3\tracking3x3\data\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0F6C5B-709F-4ACD-B6E0-DE81AC05D99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>brunobedo</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{8297F138-A23E-4D36-8625-50CB64BF4D42}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{694EB480-6C8B-4077-8E5D-176A4D311380}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>jogo_num</t>
   </si>
@@ -179,12 +178,39 @@
   </si>
   <si>
     <t>atleta_fora_fim</t>
+  </si>
+  <si>
+    <t>atleta_id</t>
+  </si>
+  <si>
+    <t>atleta_info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t1_baixinho </t>
+  </si>
+  <si>
+    <t>t1_joelheira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t1_gordinho </t>
+  </si>
+  <si>
+    <t>t2_bigode</t>
+  </si>
+  <si>
+    <t>t2_magrelo</t>
+  </si>
+  <si>
+    <t>t2_meia_branca</t>
+  </si>
+  <si>
+    <t>t2_gigante</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,11 +543,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,8 +557,9 @@
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -562,9 +589,15 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
       <c r="K1" t="s">
@@ -608,10 +641,16 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
       <c r="K2">
@@ -643,10 +682,16 @@
       <c r="C3">
         <v>57792</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>17</v>
       </c>
       <c r="K3">
@@ -672,10 +717,16 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>15</v>
       </c>
       <c r="K4">
@@ -701,7 +752,13 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>4</v>
+      </c>
       <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
         <v>16</v>
       </c>
       <c r="K5">
@@ -728,6 +785,12 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
       <c r="K6">
         <v>9620</v>
       </c>
@@ -752,7 +815,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="1"/>
       <c r="K7">
         <v>11713</v>
       </c>
@@ -776,6 +845,12 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
       <c r="K8">
         <v>17949</v>
       </c>
